--- a/Report/成都美瑞.xlsx
+++ b/Report/成都美瑞.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="5505" windowHeight="4920" tabRatio="857" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="1005" yWindow="0" windowWidth="5505" windowHeight="4920" tabRatio="857" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="关键指标" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,42 @@
     <sheet name="CPC" sheetId="6" r:id="rId6"/>
     <sheet name="体验报告-案例数" sheetId="7" r:id="rId7"/>
     <sheet name="透视表" sheetId="8" r:id="rId8"/>
-    <sheet name="竞对数据" sheetId="9" r:id="rId9"/>
-    <sheet name="流量" sheetId="10" r:id="rId10"/>
-    <sheet name="咨询明细" sheetId="11" r:id="rId11"/>
-    <sheet name="预约数据" sheetId="12" r:id="rId12"/>
-    <sheet name="消费数据明细（线上）" sheetId="13" r:id="rId13"/>
-    <sheet name="线下" sheetId="14" r:id="rId14"/>
-    <sheet name="口碑数据" sheetId="15" r:id="rId15"/>
-    <sheet name="回复口碑" sheetId="16" r:id="rId16"/>
-    <sheet name="CPC数据" sheetId="17" r:id="rId17"/>
+    <sheet name="MidSheet" sheetId="18" r:id="rId9"/>
+    <sheet name="竞对数据" sheetId="9" r:id="rId10"/>
+    <sheet name="流量" sheetId="10" r:id="rId11"/>
+    <sheet name="咨询明细" sheetId="11" r:id="rId12"/>
+    <sheet name="预约数据" sheetId="12" r:id="rId13"/>
+    <sheet name="消费数据明细（线上）" sheetId="13" r:id="rId14"/>
+    <sheet name="线下" sheetId="14" r:id="rId15"/>
+    <sheet name="口碑数据" sheetId="15" r:id="rId16"/>
+    <sheet name="回复口碑" sheetId="16" r:id="rId17"/>
+    <sheet name="CPC数据" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">CPC数据!$A$1:$AE$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">口碑数据!$C$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">流量!$F$2:$G$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">线下!$A$1:$G$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'消费数据明细（线上）'!$A$1:$N$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">预约数据!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">咨询明细!$E$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">CPC数据!$A$1:$AE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">口碑数据!$C$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">流量!$F$2:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">线下!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'消费数据明细（线上）'!$A$1:$N$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">预约数据!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">咨询明细!$E$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId18"/>
-    <pivotCache cacheId="9" r:id="rId19"/>
-    <pivotCache cacheId="10" r:id="rId20"/>
-    <pivotCache cacheId="11" r:id="rId21"/>
-    <pivotCache cacheId="12" r:id="rId22"/>
-    <pivotCache cacheId="13" r:id="rId23"/>
-    <pivotCache cacheId="14" r:id="rId24"/>
-    <pivotCache cacheId="15" r:id="rId25"/>
+    <pivotCache cacheId="8" r:id="rId19"/>
+    <pivotCache cacheId="9" r:id="rId20"/>
+    <pivotCache cacheId="10" r:id="rId21"/>
+    <pivotCache cacheId="11" r:id="rId22"/>
+    <pivotCache cacheId="12" r:id="rId23"/>
+    <pivotCache cacheId="13" r:id="rId24"/>
+    <pivotCache cacheId="14" r:id="rId25"/>
+    <pivotCache cacheId="15" r:id="rId26"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="351">
   <si>
     <t>红字为结合机构提供数据汇总</t>
   </si>
@@ -1095,6 +1096,30 @@
   <si>
     <t>晚上7-11点</t>
   </si>
+  <si>
+    <t>今年</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1108,7 +1133,7 @@
     <numFmt numFmtId="180" formatCode="0.0"/>
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,6 +1486,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1991,7 +2022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2643,6 +2674,12 @@
     <xf numFmtId="177" fontId="28" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2686,25 +2723,25 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2867,6 +2904,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <name val="微软雅黑"/>
       </font>
@@ -2892,28 +2932,24 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="#,##0_ "/>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3144,9 +3180,28 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="#,##0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -3162,9 +3217,6 @@
       <font>
         <name val="微软雅黑"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -3290,21 +3342,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -9113,6 +9150,977 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表17" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AM3:AQ15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="12">
+        <item x="6"/>
+        <item x="2"/>
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i/>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i/>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i/>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="计数项:金额" fld="5" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="求和项:金额2" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="17">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表16" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="X15:AB16" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item m="1" x="6"/>
+        <item h="1" x="3"/>
+        <item m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="153">
+        <item m="1" x="89"/>
+        <item m="1" x="151"/>
+        <item m="1" x="131"/>
+        <item m="1" x="109"/>
+        <item m="1" x="88"/>
+        <item m="1" x="150"/>
+        <item m="1" x="130"/>
+        <item m="1" x="108"/>
+        <item m="1" x="87"/>
+        <item m="1" x="149"/>
+        <item m="1" x="129"/>
+        <item m="1" x="107"/>
+        <item m="1" x="86"/>
+        <item m="1" x="148"/>
+        <item m="1" x="128"/>
+        <item m="1" x="106"/>
+        <item m="1" x="85"/>
+        <item m="1" x="147"/>
+        <item m="1" x="125"/>
+        <item m="1" x="104"/>
+        <item m="1" x="83"/>
+        <item m="1" x="145"/>
+        <item m="1" x="123"/>
+        <item m="1" x="102"/>
+        <item m="1" x="81"/>
+        <item m="1" x="143"/>
+        <item m="1" x="121"/>
+        <item x="70"/>
+        <item m="1" x="126"/>
+        <item m="1" x="105"/>
+        <item m="1" x="84"/>
+        <item m="1" x="146"/>
+        <item m="1" x="124"/>
+        <item m="1" x="103"/>
+        <item m="1" x="82"/>
+        <item m="1" x="144"/>
+        <item m="1" x="122"/>
+        <item m="1" x="101"/>
+        <item m="1" x="80"/>
+        <item m="1" x="142"/>
+        <item m="1" x="120"/>
+        <item m="1" x="100"/>
+        <item m="1" x="79"/>
+        <item m="1" x="139"/>
+        <item m="1" x="117"/>
+        <item m="1" x="97"/>
+        <item m="1" x="76"/>
+        <item m="1" x="136"/>
+        <item m="1" x="114"/>
+        <item m="1" x="94"/>
+        <item m="1" x="74"/>
+        <item m="1" x="134"/>
+        <item m="1" x="112"/>
+        <item m="1" x="92"/>
+        <item m="1" x="72"/>
+        <item m="1" x="132"/>
+        <item m="1" x="110"/>
+        <item m="1" x="90"/>
+        <item m="1" x="141"/>
+        <item m="1" x="119"/>
+        <item m="1" x="99"/>
+        <item m="1" x="78"/>
+        <item m="1" x="138"/>
+        <item m="1" x="116"/>
+        <item m="1" x="96"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="113"/>
+        <item m="1" x="93"/>
+        <item m="1" x="73"/>
+        <item m="1" x="133"/>
+        <item m="1" x="111"/>
+        <item m="1" x="91"/>
+        <item m="1" x="71"/>
+        <item m="1" x="127"/>
+        <item m="1" x="140"/>
+        <item m="1" x="118"/>
+        <item m="1" x="95"/>
+        <item m="1" x="115"/>
+        <item m="1" x="137"/>
+        <item m="1" x="77"/>
+        <item m="1" x="98"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="65">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="AG3:AK23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="93">
+        <item m="1" x="47"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
+        <item m="1" x="48"/>
+        <item m="1" x="60"/>
+        <item m="1" x="68"/>
+        <item m="1" x="67"/>
+        <item m="1" x="57"/>
+        <item m="1" x="62"/>
+        <item m="1" x="34"/>
+        <item m="1" x="66"/>
+        <item m="1" x="29"/>
+        <item m="1" x="54"/>
+        <item m="1" x="42"/>
+        <item m="1" x="77"/>
+        <item x="25"/>
+        <item m="1" x="38"/>
+        <item m="1" x="64"/>
+        <item m="1" x="76"/>
+        <item m="1" x="65"/>
+        <item m="1" x="59"/>
+        <item m="1" x="44"/>
+        <item m="1" x="51"/>
+        <item m="1" x="37"/>
+        <item m="1" x="75"/>
+        <item m="1" x="61"/>
+        <item m="1" x="58"/>
+        <item m="1" x="81"/>
+        <item m="1" x="28"/>
+        <item m="1" x="63"/>
+        <item m="1" x="84"/>
+        <item m="1" x="80"/>
+        <item m="1" x="89"/>
+        <item m="1" x="79"/>
+        <item m="1" x="78"/>
+        <item m="1" x="31"/>
+        <item m="1" x="49"/>
+        <item m="1" x="83"/>
+        <item m="1" x="56"/>
+        <item m="1" x="35"/>
+        <item m="1" x="74"/>
+        <item m="1" x="40"/>
+        <item m="1" x="91"/>
+        <item m="1" x="85"/>
+        <item m="1" x="45"/>
+        <item m="1" x="69"/>
+        <item m="1" x="90"/>
+        <item m="1" x="52"/>
+        <item m="1" x="33"/>
+        <item m="1" x="41"/>
+        <item m="1" x="43"/>
+        <item m="1" x="36"/>
+        <item m="1" x="87"/>
+        <item m="1" x="71"/>
+        <item m="1" x="88"/>
+        <item m="1" x="32"/>
+        <item m="1" x="70"/>
+        <item m="1" x="50"/>
+        <item m="1" x="27"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="86"/>
+        <item m="1" x="26"/>
+        <item m="1" x="55"/>
+        <item m="1" x="92"/>
+        <item m="1" x="53"/>
+        <item m="1" x="46"/>
+        <item m="1" x="82"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="24"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i/>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i/>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="计数项:成交价" fld="2" subtotal="count" baseField="7" baseItem="19"/>
+    <dataField name="求和项:成交价2" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="29">
+    <format dxfId="94">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="93">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="92">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="91">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1">
+            <x v="43"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="88">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="77">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1">
+            <x v="90"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表14" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U15:U16" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="8"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="68">
+        <item m="1" x="52"/>
+        <item m="1" x="65"/>
+        <item m="1" x="47"/>
+        <item m="1" x="37"/>
+        <item m="1" x="22"/>
+        <item m="1" x="66"/>
+        <item m="1" x="50"/>
+        <item m="1" x="48"/>
+        <item m="1" x="62"/>
+        <item x="5"/>
+        <item m="1" x="44"/>
+        <item m="1" x="58"/>
+        <item m="1" x="14"/>
+        <item m="1" x="8"/>
+        <item m="1" x="26"/>
+        <item m="1" x="10"/>
+        <item m="1" x="21"/>
+        <item m="1" x="36"/>
+        <item m="1" x="53"/>
+        <item m="1" x="6"/>
+        <item m="1" x="24"/>
+        <item m="1" x="39"/>
+        <item m="1" x="54"/>
+        <item m="1" x="7"/>
+        <item m="1" x="20"/>
+        <item m="1" x="34"/>
+        <item m="1" x="49"/>
+        <item m="1" x="25"/>
+        <item m="1" x="40"/>
+        <item m="1" x="55"/>
+        <item m="1" x="42"/>
+        <item m="1" x="9"/>
+        <item m="1" x="41"/>
+        <item m="1" x="27"/>
+        <item m="1" x="35"/>
+        <item m="1" x="63"/>
+        <item m="1" x="33"/>
+        <item m="1" x="19"/>
+        <item m="1" x="51"/>
+        <item m="1" x="23"/>
+        <item m="1" x="38"/>
+        <item m="1" x="11"/>
+        <item m="1" x="45"/>
+        <item m="1" x="60"/>
+        <item m="1" x="32"/>
+        <item m="1" x="64"/>
+        <item m="1" x="18"/>
+        <item m="1" x="17"/>
+        <item m="1" x="46"/>
+        <item m="1" x="61"/>
+        <item m="1" x="16"/>
+        <item m="1" x="31"/>
+        <item m="1" x="15"/>
+        <item m="1" x="59"/>
+        <item m="1" x="12"/>
+        <item m="1" x="56"/>
+        <item m="1" x="29"/>
+        <item m="1" x="43"/>
+        <item m="1" x="28"/>
+        <item m="1" x="57"/>
+        <item m="1" x="13"/>
+        <item m="1" x="30"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:用户昵称" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="97">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="95">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F5:F6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="100">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="99">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="98">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L6:M11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="11">
@@ -9417,16 +10425,16 @@
     <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="13">
+    <format dxfId="106">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="105">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="104">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -9435,10 +10443,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9446,7 +10454,338 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="206">
+        <item m="1" x="136"/>
+        <item m="1" x="103"/>
+        <item m="1" x="199"/>
+        <item m="1" x="167"/>
+        <item m="1" x="133"/>
+        <item m="1" x="101"/>
+        <item m="1" x="197"/>
+        <item m="1" x="165"/>
+        <item m="1" x="131"/>
+        <item m="1" x="98"/>
+        <item m="1" x="194"/>
+        <item m="1" x="161"/>
+        <item m="1" x="127"/>
+        <item m="1" x="94"/>
+        <item m="1" x="190"/>
+        <item m="1" x="157"/>
+        <item m="1" x="123"/>
+        <item m="1" x="90"/>
+        <item m="1" x="186"/>
+        <item m="1" x="153"/>
+        <item m="1" x="163"/>
+        <item m="1" x="129"/>
+        <item m="1" x="96"/>
+        <item m="1" x="192"/>
+        <item m="1" x="159"/>
+        <item m="1" x="125"/>
+        <item m="1" x="92"/>
+        <item m="1" x="188"/>
+        <item m="1" x="155"/>
+        <item m="1" x="121"/>
+        <item m="1" x="88"/>
+        <item m="1" x="184"/>
+        <item m="1" x="151"/>
+        <item m="1" x="118"/>
+        <item m="1" x="87"/>
+        <item m="1" x="183"/>
+        <item m="1" x="150"/>
+        <item m="1" x="117"/>
+        <item m="1" x="86"/>
+        <item x="76"/>
+        <item m="1" x="113"/>
+        <item m="1" x="146"/>
+        <item m="1" x="179"/>
+        <item m="1" x="84"/>
+        <item m="1" x="115"/>
+        <item m="1" x="148"/>
+        <item m="1" x="181"/>
+        <item m="1" x="80"/>
+        <item m="1" x="111"/>
+        <item m="1" x="144"/>
+        <item m="1" x="177"/>
+        <item m="1" x="82"/>
+        <item m="1" x="182"/>
+        <item m="1" x="149"/>
+        <item m="1" x="116"/>
+        <item m="1" x="85"/>
+        <item m="1" x="180"/>
+        <item m="1" x="147"/>
+        <item m="1" x="114"/>
+        <item m="1" x="83"/>
+        <item m="1" x="178"/>
+        <item m="1" x="145"/>
+        <item m="1" x="112"/>
+        <item m="1" x="81"/>
+        <item m="1" x="143"/>
+        <item m="1" x="176"/>
+        <item m="1" x="110"/>
+        <item m="1" x="79"/>
+        <item m="1" x="175"/>
+        <item m="1" x="142"/>
+        <item m="1" x="109"/>
+        <item m="1" x="77"/>
+        <item m="1" x="173"/>
+        <item m="1" x="140"/>
+        <item m="1" x="107"/>
+        <item m="1" x="203"/>
+        <item m="1" x="171"/>
+        <item m="1" x="138"/>
+        <item m="1" x="105"/>
+        <item m="1" x="201"/>
+        <item m="1" x="169"/>
+        <item m="1" x="135"/>
+        <item m="1" x="78"/>
+        <item m="1" x="174"/>
+        <item m="1" x="141"/>
+        <item m="1" x="108"/>
+        <item m="1" x="204"/>
+        <item m="1" x="172"/>
+        <item m="1" x="139"/>
+        <item m="1" x="106"/>
+        <item m="1" x="202"/>
+        <item m="1" x="170"/>
+        <item m="1" x="137"/>
+        <item m="1" x="104"/>
+        <item m="1" x="200"/>
+        <item m="1" x="168"/>
+        <item m="1" x="134"/>
+        <item m="1" x="102"/>
+        <item m="1" x="198"/>
+        <item m="1" x="166"/>
+        <item m="1" x="132"/>
+        <item m="1" x="99"/>
+        <item m="1" x="195"/>
+        <item m="1" x="162"/>
+        <item m="1" x="128"/>
+        <item m="1" x="95"/>
+        <item m="1" x="191"/>
+        <item m="1" x="158"/>
+        <item m="1" x="124"/>
+        <item m="1" x="91"/>
+        <item m="1" x="120"/>
+        <item m="1" x="154"/>
+        <item m="1" x="187"/>
+        <item m="1" x="193"/>
+        <item m="1" x="97"/>
+        <item m="1" x="130"/>
+        <item m="1" x="164"/>
+        <item m="1" x="196"/>
+        <item m="1" x="100"/>
+        <item m="1" x="160"/>
+        <item m="1" x="126"/>
+        <item m="1" x="93"/>
+        <item m="1" x="189"/>
+        <item m="1" x="156"/>
+        <item m="1" x="122"/>
+        <item m="1" x="89"/>
+        <item m="1" x="152"/>
+        <item m="1" x="185"/>
+        <item m="1" x="119"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="63"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
+    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
+    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
+    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="115">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="113">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="112">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="111">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="109">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表15" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="X6:AB7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
@@ -9673,7 +11012,7 @@
     <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="85">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9682,13 +11021,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9702,143 +11041,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表14" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U15:U16" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="68">
-        <item m="1" x="52"/>
-        <item m="1" x="65"/>
-        <item m="1" x="47"/>
-        <item m="1" x="37"/>
-        <item m="1" x="22"/>
-        <item m="1" x="66"/>
-        <item m="1" x="50"/>
-        <item m="1" x="48"/>
-        <item m="1" x="62"/>
-        <item x="5"/>
-        <item m="1" x="44"/>
-        <item m="1" x="58"/>
-        <item m="1" x="14"/>
-        <item m="1" x="8"/>
-        <item m="1" x="26"/>
-        <item m="1" x="10"/>
-        <item m="1" x="21"/>
-        <item m="1" x="36"/>
-        <item m="1" x="53"/>
-        <item m="1" x="6"/>
-        <item m="1" x="24"/>
-        <item m="1" x="39"/>
-        <item m="1" x="54"/>
-        <item m="1" x="7"/>
-        <item m="1" x="20"/>
-        <item m="1" x="34"/>
-        <item m="1" x="49"/>
-        <item m="1" x="25"/>
-        <item m="1" x="40"/>
-        <item m="1" x="55"/>
-        <item m="1" x="42"/>
-        <item m="1" x="9"/>
-        <item m="1" x="41"/>
-        <item m="1" x="27"/>
-        <item m="1" x="35"/>
-        <item m="1" x="63"/>
-        <item m="1" x="33"/>
-        <item m="1" x="19"/>
-        <item m="1" x="51"/>
-        <item m="1" x="23"/>
-        <item m="1" x="38"/>
-        <item m="1" x="11"/>
-        <item m="1" x="45"/>
-        <item m="1" x="60"/>
-        <item m="1" x="32"/>
-        <item m="1" x="64"/>
-        <item m="1" x="18"/>
-        <item m="1" x="17"/>
-        <item m="1" x="46"/>
-        <item m="1" x="61"/>
-        <item m="1" x="16"/>
-        <item m="1" x="31"/>
-        <item m="1" x="15"/>
-        <item m="1" x="59"/>
-        <item m="1" x="12"/>
-        <item m="1" x="56"/>
-        <item m="1" x="29"/>
-        <item m="1" x="43"/>
-        <item m="1" x="28"/>
-        <item m="1" x="57"/>
-        <item m="1" x="13"/>
-        <item m="1" x="30"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:用户昵称" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="88">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="87">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I6:J12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="11">
@@ -10146,16 +11349,16 @@
     <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="94">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="25">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10164,10 +11367,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10175,7 +11378,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表18" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AS3:AU21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
@@ -10298,25 +11501,25 @@
     <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="103">
+    <format dxfId="36">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="34">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="33">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="32">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="31">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -10325,10 +11528,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -10340,10 +11543,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="7">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表13" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -10352,347 +11555,94 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
+      <items count="10">
+        <item h="1" m="1" x="7"/>
         <item h="1" m="1" x="6"/>
+        <item h="1" x="2"/>
         <item h="1" m="1" x="4"/>
-        <item h="1" x="3"/>
         <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" x="0"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="3"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="206">
-        <item m="1" x="136"/>
-        <item m="1" x="103"/>
-        <item m="1" x="199"/>
-        <item m="1" x="167"/>
-        <item m="1" x="133"/>
-        <item m="1" x="101"/>
-        <item m="1" x="197"/>
-        <item m="1" x="165"/>
-        <item m="1" x="131"/>
-        <item m="1" x="98"/>
-        <item m="1" x="194"/>
-        <item m="1" x="161"/>
-        <item m="1" x="127"/>
-        <item m="1" x="94"/>
-        <item m="1" x="190"/>
-        <item m="1" x="157"/>
-        <item m="1" x="123"/>
-        <item m="1" x="90"/>
-        <item m="1" x="186"/>
-        <item m="1" x="153"/>
-        <item m="1" x="163"/>
-        <item m="1" x="129"/>
-        <item m="1" x="96"/>
-        <item m="1" x="192"/>
-        <item m="1" x="159"/>
-        <item m="1" x="125"/>
-        <item m="1" x="92"/>
-        <item m="1" x="188"/>
-        <item m="1" x="155"/>
-        <item m="1" x="121"/>
-        <item m="1" x="88"/>
-        <item m="1" x="184"/>
-        <item m="1" x="151"/>
-        <item m="1" x="118"/>
-        <item m="1" x="87"/>
-        <item m="1" x="183"/>
-        <item m="1" x="150"/>
-        <item m="1" x="117"/>
-        <item m="1" x="86"/>
-        <item x="76"/>
-        <item m="1" x="113"/>
-        <item m="1" x="146"/>
-        <item m="1" x="179"/>
-        <item m="1" x="84"/>
-        <item m="1" x="115"/>
-        <item m="1" x="148"/>
-        <item m="1" x="181"/>
-        <item m="1" x="80"/>
-        <item m="1" x="111"/>
-        <item m="1" x="144"/>
-        <item m="1" x="177"/>
-        <item m="1" x="82"/>
-        <item m="1" x="182"/>
-        <item m="1" x="149"/>
-        <item m="1" x="116"/>
-        <item m="1" x="85"/>
-        <item m="1" x="180"/>
-        <item m="1" x="147"/>
-        <item m="1" x="114"/>
-        <item m="1" x="83"/>
-        <item m="1" x="178"/>
-        <item m="1" x="145"/>
-        <item m="1" x="112"/>
-        <item m="1" x="81"/>
-        <item m="1" x="143"/>
-        <item m="1" x="176"/>
-        <item m="1" x="110"/>
-        <item m="1" x="79"/>
-        <item m="1" x="175"/>
-        <item m="1" x="142"/>
-        <item m="1" x="109"/>
-        <item m="1" x="77"/>
-        <item m="1" x="173"/>
-        <item m="1" x="140"/>
-        <item m="1" x="107"/>
-        <item m="1" x="203"/>
-        <item m="1" x="171"/>
-        <item m="1" x="138"/>
-        <item m="1" x="105"/>
-        <item m="1" x="201"/>
-        <item m="1" x="169"/>
-        <item m="1" x="135"/>
-        <item m="1" x="78"/>
-        <item m="1" x="174"/>
-        <item m="1" x="141"/>
-        <item m="1" x="108"/>
-        <item m="1" x="204"/>
-        <item m="1" x="172"/>
-        <item m="1" x="139"/>
-        <item m="1" x="106"/>
-        <item m="1" x="202"/>
-        <item m="1" x="170"/>
-        <item m="1" x="137"/>
-        <item m="1" x="104"/>
-        <item m="1" x="200"/>
-        <item m="1" x="168"/>
-        <item m="1" x="134"/>
-        <item m="1" x="102"/>
-        <item m="1" x="198"/>
-        <item m="1" x="166"/>
-        <item m="1" x="132"/>
-        <item m="1" x="99"/>
-        <item m="1" x="195"/>
-        <item m="1" x="162"/>
-        <item m="1" x="128"/>
-        <item m="1" x="95"/>
-        <item m="1" x="191"/>
-        <item m="1" x="158"/>
-        <item m="1" x="124"/>
-        <item m="1" x="91"/>
-        <item m="1" x="120"/>
-        <item m="1" x="154"/>
-        <item m="1" x="187"/>
-        <item m="1" x="193"/>
-        <item m="1" x="97"/>
-        <item m="1" x="130"/>
-        <item m="1" x="164"/>
-        <item m="1" x="196"/>
-        <item m="1" x="100"/>
-        <item m="1" x="160"/>
-        <item m="1" x="126"/>
-        <item m="1" x="93"/>
-        <item m="1" x="189"/>
-        <item m="1" x="156"/>
-        <item m="1" x="122"/>
-        <item m="1" x="89"/>
-        <item m="1" x="152"/>
-        <item m="1" x="185"/>
-        <item m="1" x="119"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="68">
+        <item m="1" x="52"/>
+        <item m="1" x="65"/>
+        <item m="1" x="47"/>
+        <item m="1" x="37"/>
+        <item m="1" x="22"/>
+        <item m="1" x="66"/>
+        <item m="1" x="50"/>
+        <item m="1" x="48"/>
+        <item m="1" x="62"/>
+        <item x="5"/>
+        <item m="1" x="44"/>
+        <item m="1" x="58"/>
+        <item m="1" x="14"/>
+        <item m="1" x="8"/>
+        <item m="1" x="26"/>
+        <item m="1" x="10"/>
+        <item m="1" x="21"/>
+        <item m="1" x="36"/>
+        <item m="1" x="53"/>
+        <item m="1" x="6"/>
+        <item m="1" x="24"/>
+        <item m="1" x="39"/>
+        <item m="1" x="54"/>
+        <item m="1" x="7"/>
+        <item m="1" x="20"/>
+        <item m="1" x="34"/>
+        <item m="1" x="49"/>
+        <item m="1" x="25"/>
+        <item m="1" x="40"/>
+        <item m="1" x="55"/>
+        <item m="1" x="42"/>
+        <item m="1" x="9"/>
+        <item m="1" x="41"/>
+        <item m="1" x="27"/>
+        <item m="1" x="35"/>
+        <item m="1" x="63"/>
+        <item m="1" x="33"/>
+        <item m="1" x="19"/>
+        <item m="1" x="51"/>
+        <item m="1" x="23"/>
+        <item m="1" x="38"/>
+        <item m="1" x="11"/>
+        <item m="1" x="45"/>
+        <item m="1" x="60"/>
+        <item m="1" x="32"/>
+        <item m="1" x="64"/>
+        <item m="1" x="18"/>
+        <item m="1" x="17"/>
+        <item m="1" x="46"/>
+        <item m="1" x="61"/>
+        <item m="1" x="16"/>
+        <item m="1" x="31"/>
+        <item m="1" x="15"/>
+        <item m="1" x="59"/>
+        <item m="1" x="12"/>
+        <item m="1" x="56"/>
+        <item m="1" x="29"/>
+        <item m="1" x="43"/>
+        <item m="1" x="28"/>
+        <item m="1" x="57"/>
+        <item m="1" x="13"/>
+        <item m="1" x="30"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
         <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="51"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="53"/>
-        <item x="52"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="57"/>
-        <item x="60"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="63"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
-    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
-    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
-    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="112">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="108">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="106">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="105">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F5:F6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10706,21 +11656,22 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="0" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="计数项:用户昵称" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="115">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -10728,391 +11679,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="AG3:AK23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="93">
-        <item m="1" x="47"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="48"/>
-        <item m="1" x="60"/>
-        <item m="1" x="68"/>
-        <item m="1" x="67"/>
-        <item m="1" x="57"/>
-        <item m="1" x="62"/>
-        <item m="1" x="34"/>
-        <item m="1" x="66"/>
-        <item m="1" x="29"/>
-        <item m="1" x="54"/>
-        <item m="1" x="42"/>
-        <item m="1" x="77"/>
-        <item x="25"/>
-        <item m="1" x="38"/>
-        <item m="1" x="64"/>
-        <item m="1" x="76"/>
-        <item m="1" x="65"/>
-        <item m="1" x="59"/>
-        <item m="1" x="44"/>
-        <item m="1" x="51"/>
-        <item m="1" x="37"/>
-        <item m="1" x="75"/>
-        <item m="1" x="61"/>
-        <item m="1" x="58"/>
-        <item m="1" x="81"/>
-        <item m="1" x="28"/>
-        <item m="1" x="63"/>
-        <item m="1" x="84"/>
-        <item m="1" x="80"/>
-        <item m="1" x="89"/>
-        <item m="1" x="79"/>
-        <item m="1" x="78"/>
-        <item m="1" x="31"/>
-        <item m="1" x="49"/>
-        <item m="1" x="83"/>
-        <item m="1" x="56"/>
-        <item m="1" x="35"/>
-        <item m="1" x="74"/>
-        <item m="1" x="40"/>
-        <item m="1" x="91"/>
-        <item m="1" x="85"/>
-        <item m="1" x="45"/>
-        <item m="1" x="69"/>
-        <item m="1" x="90"/>
-        <item m="1" x="52"/>
-        <item m="1" x="33"/>
-        <item m="1" x="41"/>
-        <item m="1" x="43"/>
-        <item m="1" x="36"/>
-        <item m="1" x="87"/>
-        <item m="1" x="71"/>
-        <item m="1" x="88"/>
-        <item m="1" x="32"/>
-        <item m="1" x="70"/>
-        <item m="1" x="50"/>
-        <item m="1" x="27"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="86"/>
-        <item m="1" x="26"/>
-        <item m="1" x="55"/>
-        <item m="1" x="92"/>
-        <item m="1" x="53"/>
-        <item m="1" x="46"/>
-        <item m="1" x="82"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="23"/>
-        <item x="24"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i/>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i/>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="计数项:成交价" fld="2" subtotal="count" baseField="7" baseItem="19"/>
-    <dataField name="求和项:成交价2" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="29">
-    <format dxfId="42">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
-            <x v="43"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
-            <x v="90"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
@@ -11381,29 +11948,8 @@
     <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="50">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
     <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -11418,9 +11964,30 @@
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11434,7 +12001,238 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R6:S8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="8"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="75">
+        <item m="1" x="59"/>
+        <item m="1" x="41"/>
+        <item m="1" x="23"/>
+        <item m="1" x="38"/>
+        <item m="1" x="72"/>
+        <item m="1" x="54"/>
+        <item m="1" x="43"/>
+        <item m="1" x="25"/>
+        <item m="1" x="73"/>
+        <item m="1" x="57"/>
+        <item m="1" x="55"/>
+        <item m="1" x="69"/>
+        <item x="6"/>
+        <item m="1" x="16"/>
+        <item m="1" x="65"/>
+        <item m="1" x="50"/>
+        <item m="1" x="62"/>
+        <item m="1" x="48"/>
+        <item m="1" x="10"/>
+        <item m="1" x="47"/>
+        <item m="1" x="30"/>
+        <item m="1" x="9"/>
+        <item m="1" x="29"/>
+        <item m="1" x="11"/>
+        <item m="1" x="28"/>
+        <item m="1" x="46"/>
+        <item m="1" x="8"/>
+        <item m="1" x="61"/>
+        <item m="1" x="45"/>
+        <item m="1" x="27"/>
+        <item m="1" x="7"/>
+        <item m="1" x="60"/>
+        <item m="1" x="42"/>
+        <item m="1" x="24"/>
+        <item m="1" x="56"/>
+        <item m="1" x="22"/>
+        <item m="1" x="39"/>
+        <item m="1" x="36"/>
+        <item m="1" x="21"/>
+        <item m="1" x="37"/>
+        <item m="1" x="40"/>
+        <item m="1" x="58"/>
+        <item m="1" x="26"/>
+        <item m="1" x="44"/>
+        <item m="1" x="13"/>
+        <item m="1" x="51"/>
+        <item m="1" x="67"/>
+        <item m="1" x="70"/>
+        <item m="1" x="35"/>
+        <item m="1" x="19"/>
+        <item m="1" x="71"/>
+        <item m="1" x="20"/>
+        <item m="1" x="53"/>
+        <item m="1" x="18"/>
+        <item m="1" x="52"/>
+        <item m="1" x="68"/>
+        <item m="1" x="34"/>
+        <item m="1" x="17"/>
+        <item m="1" x="66"/>
+        <item m="1" x="32"/>
+        <item m="1" x="14"/>
+        <item m="1" x="49"/>
+        <item m="1" x="63"/>
+        <item m="1" x="31"/>
+        <item m="1" x="64"/>
+        <item m="1" x="15"/>
+        <item m="1" x="33"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="2">
+    <i/>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="53">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F15:F16" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="56">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O6:P9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
@@ -11582,180 +12380,6 @@
     <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="56">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R6:S8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="75">
-        <item m="1" x="59"/>
-        <item m="1" x="41"/>
-        <item m="1" x="23"/>
-        <item m="1" x="38"/>
-        <item m="1" x="72"/>
-        <item m="1" x="54"/>
-        <item m="1" x="43"/>
-        <item m="1" x="25"/>
-        <item m="1" x="73"/>
-        <item m="1" x="57"/>
-        <item m="1" x="55"/>
-        <item m="1" x="69"/>
-        <item x="6"/>
-        <item m="1" x="16"/>
-        <item m="1" x="65"/>
-        <item m="1" x="50"/>
-        <item m="1" x="62"/>
-        <item m="1" x="48"/>
-        <item m="1" x="10"/>
-        <item m="1" x="47"/>
-        <item m="1" x="30"/>
-        <item m="1" x="9"/>
-        <item m="1" x="29"/>
-        <item m="1" x="11"/>
-        <item m="1" x="28"/>
-        <item m="1" x="46"/>
-        <item m="1" x="8"/>
-        <item m="1" x="61"/>
-        <item m="1" x="45"/>
-        <item m="1" x="27"/>
-        <item m="1" x="7"/>
-        <item m="1" x="60"/>
-        <item m="1" x="42"/>
-        <item m="1" x="24"/>
-        <item m="1" x="56"/>
-        <item m="1" x="22"/>
-        <item m="1" x="39"/>
-        <item m="1" x="36"/>
-        <item m="1" x="21"/>
-        <item m="1" x="37"/>
-        <item m="1" x="40"/>
-        <item m="1" x="58"/>
-        <item m="1" x="26"/>
-        <item m="1" x="44"/>
-        <item m="1" x="13"/>
-        <item m="1" x="51"/>
-        <item m="1" x="67"/>
-        <item m="1" x="70"/>
-        <item m="1" x="35"/>
-        <item m="1" x="19"/>
-        <item m="1" x="71"/>
-        <item m="1" x="20"/>
-        <item m="1" x="53"/>
-        <item m="1" x="18"/>
-        <item m="1" x="52"/>
-        <item m="1" x="68"/>
-        <item m="1" x="34"/>
-        <item m="1" x="17"/>
-        <item m="1" x="66"/>
-        <item m="1" x="32"/>
-        <item m="1" x="14"/>
-        <item m="1" x="49"/>
-        <item m="1" x="63"/>
-        <item m="1" x="31"/>
-        <item m="1" x="64"/>
-        <item m="1" x="15"/>
-        <item m="1" x="33"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="2">
-    <i/>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
     <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -11769,7 +12393,7 @@
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
-            <x v="0"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -11779,593 +12403,6 @@
     </format>
     <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表13" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="68">
-        <item m="1" x="52"/>
-        <item m="1" x="65"/>
-        <item m="1" x="47"/>
-        <item m="1" x="37"/>
-        <item m="1" x="22"/>
-        <item m="1" x="66"/>
-        <item m="1" x="50"/>
-        <item m="1" x="48"/>
-        <item m="1" x="62"/>
-        <item x="5"/>
-        <item m="1" x="44"/>
-        <item m="1" x="58"/>
-        <item m="1" x="14"/>
-        <item m="1" x="8"/>
-        <item m="1" x="26"/>
-        <item m="1" x="10"/>
-        <item m="1" x="21"/>
-        <item m="1" x="36"/>
-        <item m="1" x="53"/>
-        <item m="1" x="6"/>
-        <item m="1" x="24"/>
-        <item m="1" x="39"/>
-        <item m="1" x="54"/>
-        <item m="1" x="7"/>
-        <item m="1" x="20"/>
-        <item m="1" x="34"/>
-        <item m="1" x="49"/>
-        <item m="1" x="25"/>
-        <item m="1" x="40"/>
-        <item m="1" x="55"/>
-        <item m="1" x="42"/>
-        <item m="1" x="9"/>
-        <item m="1" x="41"/>
-        <item m="1" x="27"/>
-        <item m="1" x="35"/>
-        <item m="1" x="63"/>
-        <item m="1" x="33"/>
-        <item m="1" x="19"/>
-        <item m="1" x="51"/>
-        <item m="1" x="23"/>
-        <item m="1" x="38"/>
-        <item m="1" x="11"/>
-        <item m="1" x="45"/>
-        <item m="1" x="60"/>
-        <item m="1" x="32"/>
-        <item m="1" x="64"/>
-        <item m="1" x="18"/>
-        <item m="1" x="17"/>
-        <item m="1" x="46"/>
-        <item m="1" x="61"/>
-        <item m="1" x="16"/>
-        <item m="1" x="31"/>
-        <item m="1" x="15"/>
-        <item m="1" x="59"/>
-        <item m="1" x="12"/>
-        <item m="1" x="56"/>
-        <item m="1" x="29"/>
-        <item m="1" x="43"/>
-        <item m="1" x="28"/>
-        <item m="1" x="57"/>
-        <item m="1" x="13"/>
-        <item m="1" x="30"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:用户昵称" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="65">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表16" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="X15:AB16" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item m="1" x="6"/>
-        <item h="1" x="3"/>
-        <item m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="153">
-        <item m="1" x="89"/>
-        <item m="1" x="151"/>
-        <item m="1" x="131"/>
-        <item m="1" x="109"/>
-        <item m="1" x="88"/>
-        <item m="1" x="150"/>
-        <item m="1" x="130"/>
-        <item m="1" x="108"/>
-        <item m="1" x="87"/>
-        <item m="1" x="149"/>
-        <item m="1" x="129"/>
-        <item m="1" x="107"/>
-        <item m="1" x="86"/>
-        <item m="1" x="148"/>
-        <item m="1" x="128"/>
-        <item m="1" x="106"/>
-        <item m="1" x="85"/>
-        <item m="1" x="147"/>
-        <item m="1" x="125"/>
-        <item m="1" x="104"/>
-        <item m="1" x="83"/>
-        <item m="1" x="145"/>
-        <item m="1" x="123"/>
-        <item m="1" x="102"/>
-        <item m="1" x="81"/>
-        <item m="1" x="143"/>
-        <item m="1" x="121"/>
-        <item x="70"/>
-        <item m="1" x="126"/>
-        <item m="1" x="105"/>
-        <item m="1" x="84"/>
-        <item m="1" x="146"/>
-        <item m="1" x="124"/>
-        <item m="1" x="103"/>
-        <item m="1" x="82"/>
-        <item m="1" x="144"/>
-        <item m="1" x="122"/>
-        <item m="1" x="101"/>
-        <item m="1" x="80"/>
-        <item m="1" x="142"/>
-        <item m="1" x="120"/>
-        <item m="1" x="100"/>
-        <item m="1" x="79"/>
-        <item m="1" x="139"/>
-        <item m="1" x="117"/>
-        <item m="1" x="97"/>
-        <item m="1" x="76"/>
-        <item m="1" x="136"/>
-        <item m="1" x="114"/>
-        <item m="1" x="94"/>
-        <item m="1" x="74"/>
-        <item m="1" x="134"/>
-        <item m="1" x="112"/>
-        <item m="1" x="92"/>
-        <item m="1" x="72"/>
-        <item m="1" x="132"/>
-        <item m="1" x="110"/>
-        <item m="1" x="90"/>
-        <item m="1" x="141"/>
-        <item m="1" x="119"/>
-        <item m="1" x="99"/>
-        <item m="1" x="78"/>
-        <item m="1" x="138"/>
-        <item m="1" x="116"/>
-        <item m="1" x="96"/>
-        <item m="1" x="75"/>
-        <item m="1" x="135"/>
-        <item m="1" x="113"/>
-        <item m="1" x="93"/>
-        <item m="1" x="73"/>
-        <item m="1" x="133"/>
-        <item m="1" x="111"/>
-        <item m="1" x="91"/>
-        <item m="1" x="71"/>
-        <item m="1" x="127"/>
-        <item m="1" x="140"/>
-        <item m="1" x="118"/>
-        <item m="1" x="95"/>
-        <item m="1" x="115"/>
-        <item m="1" x="137"/>
-        <item m="1" x="77"/>
-        <item m="1" x="98"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="60"/>
-        <item x="59"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="68">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F15:F16" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="71">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="70">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表17" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AM3:AQ15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
-        <item x="6"/>
-        <item x="2"/>
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i/>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i/>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i/>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="计数项:金额" fld="5" subtotal="count" baseField="3" baseItem="0"/>
-    <dataField name="求和项:金额2" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="81">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="74">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="72">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="0" selected="0"/>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -12694,10 +12731,10 @@
       <c r="C2" s="162"/>
     </row>
     <row r="3" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="222"/>
+      <c r="C3" s="224"/>
       <c r="D3" s="85" t="str">
         <f>透视表!$G$22</f>
         <v>8月</v>
@@ -12718,7 +12755,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="226" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="79" t="s">
@@ -12749,7 +12786,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B5" s="222"/>
+      <c r="B5" s="224"/>
       <c r="C5" s="79" t="s">
         <v>6</v>
       </c>
@@ -12774,7 +12811,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B6" s="222"/>
+      <c r="B6" s="224"/>
       <c r="C6" s="79" t="s">
         <v>7</v>
       </c>
@@ -12799,7 +12836,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B7" s="222"/>
+      <c r="B7" s="224"/>
       <c r="C7" s="79" t="s">
         <v>8</v>
       </c>
@@ -12824,7 +12861,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="226" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="79" t="s">
@@ -12849,7 +12886,7 @@
       <c r="H8" s="189"/>
     </row>
     <row r="9" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B9" s="222"/>
+      <c r="B9" s="224"/>
       <c r="C9" s="79" t="s">
         <v>11</v>
       </c>
@@ -12874,7 +12911,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="226" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="78" t="s">
@@ -12897,7 +12934,7 @@
       <c r="H10" s="189"/>
     </row>
     <row r="11" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B11" s="222"/>
+      <c r="B11" s="224"/>
       <c r="C11" s="165" t="s">
         <v>14</v>
       </c>
@@ -12922,7 +12959,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B12" s="222"/>
+      <c r="B12" s="224"/>
       <c r="C12" s="78" t="s">
         <v>16</v>
       </c>
@@ -12943,7 +12980,7 @@
       <c r="H12" s="189"/>
     </row>
     <row r="13" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B13" s="222"/>
+      <c r="B13" s="224"/>
       <c r="C13" s="79" t="s">
         <v>17</v>
       </c>
@@ -12968,7 +13005,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B14" s="222"/>
+      <c r="B14" s="224"/>
       <c r="C14" s="78" t="s">
         <v>18</v>
       </c>
@@ -12989,7 +13026,7 @@
       <c r="H14" s="189"/>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B15" s="222"/>
+      <c r="B15" s="224"/>
       <c r="C15" s="78" t="s">
         <v>19</v>
       </c>
@@ -13010,7 +13047,7 @@
       <c r="H15" s="189"/>
     </row>
     <row r="16" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B16" s="222"/>
+      <c r="B16" s="224"/>
       <c r="C16" s="79" t="s">
         <v>20</v>
       </c>
@@ -13033,7 +13070,7 @@
       <c r="H16" s="189"/>
     </row>
     <row r="17" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="226" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="79" t="s">
@@ -13061,7 +13098,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B18" s="222"/>
+      <c r="B18" s="224"/>
       <c r="C18" s="81" t="s">
         <v>24</v>
       </c>
@@ -13083,15 +13120,15 @@
       <c r="H18" s="197"/>
     </row>
     <row r="19" spans="2:9" ht="111.6" customHeight="1" thickBot="1">
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="222"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="222"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
     </row>
     <row r="20" spans="2:9" ht="19.5" customHeight="1"/>
     <row r="21" spans="2:9" ht="19.5" customHeight="1"/>
@@ -13122,11 +13159,723 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="16" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="16" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="16" customWidth="1"/>
+    <col min="8" max="12" width="9" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="17">
+        <v>7.15</v>
+      </c>
+      <c r="C2" s="17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D2" s="17">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E2" s="17">
+        <v>8.1</v>
+      </c>
+      <c r="F2" s="17">
+        <v>8.19</v>
+      </c>
+      <c r="G2" s="218">
+        <v>9.01</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="L2" s="17">
+        <v>7.15</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="17">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="20">
+        <v>4</v>
+      </c>
+      <c r="C3" s="20">
+        <v>5</v>
+      </c>
+      <c r="D3" s="20">
+        <v>5</v>
+      </c>
+      <c r="E3" s="20">
+        <v>5</v>
+      </c>
+      <c r="F3" s="20">
+        <v>5</v>
+      </c>
+      <c r="G3" s="20">
+        <v>4</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="L3" s="20">
+        <v>4</v>
+      </c>
+      <c r="M3" s="20">
+        <v>4</v>
+      </c>
+      <c r="N3" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4</v>
+      </c>
+      <c r="F4" s="20">
+        <v>4</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="L4" s="20">
+        <v>3</v>
+      </c>
+      <c r="M4" s="20">
+        <v>4</v>
+      </c>
+      <c r="N4" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="105">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16">
+        <v>9</v>
+      </c>
+      <c r="G5" s="16">
+        <v>8</v>
+      </c>
+      <c r="L5" s="16">
+        <v>8</v>
+      </c>
+      <c r="M5" s="105">
+        <v>6</v>
+      </c>
+      <c r="N5" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="20">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20">
+        <v>51</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5</v>
+      </c>
+      <c r="F6" s="20">
+        <v>7</v>
+      </c>
+      <c r="G6" s="20">
+        <v>55</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="L6" s="20">
+        <v>5</v>
+      </c>
+      <c r="M6" s="20">
+        <v>6</v>
+      </c>
+      <c r="N6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7.15</v>
+      </c>
+      <c r="C8" s="17">
+        <f>C2</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D8" s="17">
+        <f>D2</f>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E8" s="17">
+        <v>8.1</v>
+      </c>
+      <c r="F8" s="17">
+        <f>F2</f>
+        <v>8.19</v>
+      </c>
+      <c r="G8" s="218">
+        <f>G2</f>
+        <v>9.01</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="L8" s="17">
+        <f>L2</f>
+        <v>7.15</v>
+      </c>
+      <c r="M8" s="17" t="str">
+        <f>M2</f>
+        <v>7月</v>
+      </c>
+      <c r="N8" s="17">
+        <f>N2</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="20">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20">
+        <v>17</v>
+      </c>
+      <c r="D9" s="20">
+        <v>17</v>
+      </c>
+      <c r="E9" s="20">
+        <v>16</v>
+      </c>
+      <c r="F9" s="20">
+        <v>17</v>
+      </c>
+      <c r="G9" s="20">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="L9" s="20">
+        <v>13</v>
+      </c>
+      <c r="M9" s="20">
+        <v>15</v>
+      </c>
+      <c r="N9" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="20">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20">
+        <v>15</v>
+      </c>
+      <c r="E10" s="20">
+        <v>14</v>
+      </c>
+      <c r="F10" s="20">
+        <v>14</v>
+      </c>
+      <c r="G10" s="20">
+        <v>12</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20">
+        <v>10</v>
+      </c>
+      <c r="M10" s="20">
+        <v>14</v>
+      </c>
+      <c r="N10" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="105">
+        <v>22</v>
+      </c>
+      <c r="C11" s="16">
+        <v>20</v>
+      </c>
+      <c r="D11" s="16">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16">
+        <v>35</v>
+      </c>
+      <c r="G11" s="16">
+        <v>30</v>
+      </c>
+      <c r="L11" s="16">
+        <v>22</v>
+      </c>
+      <c r="M11" s="105">
+        <v>14</v>
+      </c>
+      <c r="N11" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="20">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20">
+        <v>121</v>
+      </c>
+      <c r="D12" s="20">
+        <v>121</v>
+      </c>
+      <c r="E12" s="20">
+        <v>11</v>
+      </c>
+      <c r="F12" s="20">
+        <v>14</v>
+      </c>
+      <c r="G12" s="20">
+        <v>188</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="L12" s="20">
+        <v>10</v>
+      </c>
+      <c r="M12" s="20">
+        <v>12</v>
+      </c>
+      <c r="N12" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="17">
+        <v>7.15</v>
+      </c>
+      <c r="C14" s="17">
+        <f>C8</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D14" s="17">
+        <f>D8</f>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E14" s="17">
+        <v>8.1</v>
+      </c>
+      <c r="F14" s="17">
+        <f>F8</f>
+        <v>8.19</v>
+      </c>
+      <c r="G14" s="218">
+        <f>G8</f>
+        <v>9.01</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="L14" s="17">
+        <f>L8</f>
+        <v>7.15</v>
+      </c>
+      <c r="M14" s="17" t="str">
+        <f>M8</f>
+        <v>7月</v>
+      </c>
+      <c r="N14" s="17">
+        <f>N8</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="20">
+        <v>20</v>
+      </c>
+      <c r="C15" s="20">
+        <v>33</v>
+      </c>
+      <c r="D15" s="20">
+        <v>34</v>
+      </c>
+      <c r="E15" s="20">
+        <v>27</v>
+      </c>
+      <c r="F15" s="20">
+        <v>29</v>
+      </c>
+      <c r="G15" s="20">
+        <v>21</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="20">
+        <v>20</v>
+      </c>
+      <c r="M15" s="20">
+        <v>23</v>
+      </c>
+      <c r="N15" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="20">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20">
+        <v>22</v>
+      </c>
+      <c r="D16" s="20">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20">
+        <v>20</v>
+      </c>
+      <c r="F16" s="20">
+        <v>22</v>
+      </c>
+      <c r="G16" s="20">
+        <v>18</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="20">
+        <v>15</v>
+      </c>
+      <c r="M16" s="20">
+        <v>20</v>
+      </c>
+      <c r="N16" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="105">
+        <v>38</v>
+      </c>
+      <c r="C17" s="16">
+        <v>44</v>
+      </c>
+      <c r="D17" s="16">
+        <v>46</v>
+      </c>
+      <c r="E17" s="16">
+        <v>45</v>
+      </c>
+      <c r="F17" s="16">
+        <v>77</v>
+      </c>
+      <c r="G17" s="16">
+        <v>53</v>
+      </c>
+      <c r="L17" s="16">
+        <v>38</v>
+      </c>
+      <c r="M17" s="105">
+        <v>27</v>
+      </c>
+      <c r="N17" s="16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="20">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20">
+        <v>177</v>
+      </c>
+      <c r="D18" s="20">
+        <v>20</v>
+      </c>
+      <c r="E18" s="20">
+        <v>17</v>
+      </c>
+      <c r="F18" s="20">
+        <v>26</v>
+      </c>
+      <c r="G18" s="20">
+        <v>303</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="L18" s="20">
+        <v>14</v>
+      </c>
+      <c r="M18" s="20">
+        <v>21</v>
+      </c>
+      <c r="N18" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="18">
+        <f>L14</f>
+        <v>7.15</v>
+      </c>
+      <c r="C20" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="D20" s="18">
+        <v>8.15</v>
+      </c>
+      <c r="E20" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>9.15</v>
+      </c>
+      <c r="G20" s="18">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="20">
+        <v>7.4</v>
+      </c>
+      <c r="C21" s="20">
+        <v>7.4</v>
+      </c>
+      <c r="D21" s="20">
+        <v>7.9</v>
+      </c>
+      <c r="E21" s="20">
+        <v>8.1</v>
+      </c>
+      <c r="G21" s="219"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="20">
+        <v>7.6</v>
+      </c>
+      <c r="C22" s="20">
+        <v>7.6</v>
+      </c>
+      <c r="D22" s="20">
+        <v>8.1</v>
+      </c>
+      <c r="E22" s="20">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="20">
+        <v>7.4</v>
+      </c>
+      <c r="C23" s="20">
+        <v>7.4</v>
+      </c>
+      <c r="D23" s="20">
+        <v>7.8</v>
+      </c>
+      <c r="E23" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="D25" s="20">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="19">
+        <v>7</v>
+      </c>
+      <c r="C27" s="19">
+        <v>7</v>
+      </c>
+      <c r="D27" s="19">
+        <v>8</v>
+      </c>
+      <c r="E27" s="19">
+        <v>13</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15363,11 +16112,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -17925,7 +18674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I654"/>
   <sheetViews>
@@ -25174,14 +25923,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N769"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A106" sqref="A106"/>
-      <selection pane="topRight" sqref="A1:M1"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -35145,12 +35894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36024,7 +36773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -36207,12 +36956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -36893,7 +37642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE230"/>
   <sheetViews>
@@ -59277,7 +60026,7 @@
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="2:11" ht="24" customHeight="1" thickBot="1">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="227" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -59312,7 +60061,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B3" s="226"/>
+      <c r="B3" s="228"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
@@ -59343,7 +60092,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B4" s="226"/>
+      <c r="B4" s="228"/>
       <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
@@ -59370,7 +60119,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B5" s="226"/>
+      <c r="B5" s="228"/>
       <c r="C5" s="25" t="s">
         <v>14</v>
       </c>
@@ -59401,7 +60150,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="229" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -59434,7 +60183,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B7" s="226"/>
+      <c r="B7" s="228"/>
       <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
@@ -59465,7 +60214,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B8" s="226"/>
+      <c r="B8" s="228"/>
       <c r="C8" s="25" t="s">
         <v>37</v>
       </c>
@@ -59634,13 +60383,13 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="230" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="226"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
       <c r="H14" s="94" t="s">
         <v>49</v>
       </c>
@@ -59651,11 +60400,11 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="24.6" customHeight="1">
-      <c r="B15" s="226"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
       <c r="H15" s="94" t="s">
         <v>50</v>
       </c>
@@ -59864,22 +60613,22 @@
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="230" t="s">
+      <c r="C3" s="232" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="230" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
     </row>
     <row r="4" spans="2:8" ht="21" customHeight="1">
-      <c r="B4" s="226"/>
+      <c r="B4" s="228"/>
       <c r="C4" s="55" t="str">
         <f>透视表!$G$22</f>
         <v>8月</v>
@@ -60355,22 +61104,22 @@
   <sheetData>
     <row r="1" spans="2:9" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="236" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234" t="s">
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B3" s="233"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="55" t="str">
         <f>透视表!$G$22</f>
         <v>8月</v>
@@ -60640,15 +61389,15 @@
     </row>
     <row r="14" spans="2:9" ht="22.5" customHeight="1"/>
     <row r="15" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="237" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
     </row>
     <row r="16" spans="2:9" ht="22.5" customHeight="1"/>
     <row r="17" ht="22.5" customHeight="1"/>
@@ -61077,27 +61826,27 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="240" t="s">
+      <c r="C2" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="240" t="s">
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
       <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B3" s="237"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="8" t="str">
         <f>透视表!$G$22</f>
         <v>8月</v>
@@ -61200,25 +61949,25 @@
       <c r="B6" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="239" t="s">
+      <c r="C6" s="240" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="239" t="s">
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="240" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="237"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="239"/>
+      <c r="L6" s="239"/>
+      <c r="M6" s="239"/>
+      <c r="N6" s="239"/>
     </row>
     <row r="7" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B7" s="237"/>
+      <c r="B7" s="239"/>
       <c r="C7" s="8" t="str">
         <f>透视表!$G$22</f>
         <v>8月</v>
@@ -61336,27 +62085,27 @@
       <c r="B10" s="238" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="239" t="s">
+      <c r="C10" s="240" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="237"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="239" t="s">
+      <c r="D10" s="239"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="240" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="239" t="s">
+      <c r="H10" s="239"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="240" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
+      <c r="L10" s="239"/>
+      <c r="M10" s="239"/>
+      <c r="N10" s="239"/>
     </row>
     <row r="11" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B11" s="237"/>
+      <c r="B11" s="239"/>
       <c r="C11" s="8" t="str">
         <f>透视表!G26</f>
         <v>8月31日</v>
@@ -61470,12 +62219,12 @@
       <c r="D14" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="239"/>
+      <c r="G14" s="239"/>
     </row>
     <row r="15" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B15" s="237"/>
+      <c r="B15" s="239"/>
       <c r="C15" s="44" t="str">
         <f>"截至"&amp;C11</f>
         <v>截至8月31日</v>
@@ -61528,18 +62277,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="G2:L2"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="G2:L2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="E4">
@@ -63157,712 +63906,45 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="16" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="16" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="16" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="16" customWidth="1"/>
-    <col min="8" max="12" width="9" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="16"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="17">
-        <v>7.15</v>
-      </c>
-      <c r="C2" s="17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D2" s="17">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="E2" s="17">
-        <v>8.1</v>
-      </c>
-      <c r="F2" s="17">
-        <v>8.19</v>
-      </c>
-      <c r="G2" s="218">
-        <v>9.01</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="L2" s="17">
-        <v>7.15</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="N2" s="17">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="20">
-        <v>4</v>
-      </c>
-      <c r="C3" s="20">
-        <v>5</v>
-      </c>
-      <c r="D3" s="20">
-        <v>5</v>
-      </c>
-      <c r="E3" s="20">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20">
-        <v>5</v>
-      </c>
-      <c r="G3" s="20">
-        <v>4</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="L3" s="20">
-        <v>4</v>
-      </c>
-      <c r="M3" s="20">
-        <v>4</v>
-      </c>
-      <c r="N3" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="20">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20">
-        <v>4</v>
-      </c>
-      <c r="D4" s="20">
-        <v>4</v>
-      </c>
-      <c r="E4" s="20">
-        <v>4</v>
-      </c>
-      <c r="F4" s="20">
-        <v>4</v>
-      </c>
-      <c r="G4" s="20">
-        <v>4</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="L4" s="20">
-        <v>3</v>
-      </c>
-      <c r="M4" s="20">
-        <v>4</v>
-      </c>
-      <c r="N4" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="105">
-        <v>8</v>
-      </c>
-      <c r="C5" s="16">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16">
-        <v>10</v>
-      </c>
-      <c r="E5" s="16">
-        <v>6</v>
-      </c>
-      <c r="F5" s="16">
-        <v>9</v>
-      </c>
-      <c r="G5" s="16">
-        <v>8</v>
-      </c>
-      <c r="L5" s="16">
-        <v>8</v>
-      </c>
-      <c r="M5" s="105">
-        <v>6</v>
-      </c>
-      <c r="N5" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="20">
-        <v>5</v>
-      </c>
-      <c r="C6" s="20">
-        <v>51</v>
-      </c>
-      <c r="D6" s="20">
-        <v>51</v>
-      </c>
-      <c r="E6" s="20">
-        <v>5</v>
-      </c>
-      <c r="F6" s="20">
-        <v>7</v>
-      </c>
-      <c r="G6" s="20">
-        <v>55</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="L6" s="20">
-        <v>5</v>
-      </c>
-      <c r="M6" s="20">
-        <v>6</v>
-      </c>
-      <c r="N6" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="17">
-        <v>7.15</v>
-      </c>
-      <c r="C8" s="17">
-        <f>C2</f>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D8" s="17">
-        <f>D2</f>
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="E8" s="17">
-        <v>8.1</v>
-      </c>
-      <c r="F8" s="17">
-        <f>F2</f>
-        <v>8.19</v>
-      </c>
-      <c r="G8" s="218">
-        <f>G2</f>
-        <v>9.01</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="L8" s="17">
-        <f>L2</f>
-        <v>7.15</v>
-      </c>
-      <c r="M8" s="17" t="str">
-        <f>M2</f>
-        <v>7月</v>
-      </c>
-      <c r="N8" s="17">
-        <f>N2</f>
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="20">
-        <v>13</v>
-      </c>
-      <c r="C9" s="20">
-        <v>17</v>
-      </c>
-      <c r="D9" s="20">
-        <v>17</v>
-      </c>
-      <c r="E9" s="20">
-        <v>16</v>
-      </c>
-      <c r="F9" s="20">
-        <v>17</v>
-      </c>
-      <c r="G9" s="20">
-        <v>12</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="L9" s="20">
-        <v>13</v>
-      </c>
-      <c r="M9" s="20">
-        <v>15</v>
-      </c>
-      <c r="N9" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="20">
-        <v>10</v>
-      </c>
-      <c r="C10" s="20">
-        <v>15</v>
-      </c>
-      <c r="D10" s="20">
-        <v>15</v>
-      </c>
-      <c r="E10" s="20">
-        <v>14</v>
-      </c>
-      <c r="F10" s="20">
-        <v>14</v>
-      </c>
-      <c r="G10" s="20">
-        <v>12</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="L10" s="20">
-        <v>10</v>
-      </c>
-      <c r="M10" s="20">
-        <v>14</v>
-      </c>
-      <c r="N10" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="105">
-        <v>22</v>
-      </c>
-      <c r="C11" s="16">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16">
-        <v>18</v>
-      </c>
-      <c r="F11" s="16">
-        <v>35</v>
-      </c>
-      <c r="G11" s="16">
-        <v>30</v>
-      </c>
-      <c r="L11" s="16">
-        <v>22</v>
-      </c>
-      <c r="M11" s="105">
-        <v>14</v>
-      </c>
-      <c r="N11" s="16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="20">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20">
-        <v>121</v>
-      </c>
-      <c r="D12" s="20">
-        <v>121</v>
-      </c>
-      <c r="E12" s="20">
-        <v>11</v>
-      </c>
-      <c r="F12" s="20">
-        <v>14</v>
-      </c>
-      <c r="G12" s="20">
-        <v>188</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="L12" s="20">
-        <v>10</v>
-      </c>
-      <c r="M12" s="20">
-        <v>12</v>
-      </c>
-      <c r="N12" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="17">
-        <v>7.15</v>
-      </c>
-      <c r="C14" s="17">
-        <f>C8</f>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D14" s="17">
-        <f>D8</f>
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="E14" s="17">
-        <v>8.1</v>
-      </c>
-      <c r="F14" s="17">
-        <f>F8</f>
-        <v>8.19</v>
-      </c>
-      <c r="G14" s="218">
-        <f>G8</f>
-        <v>9.01</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="L14" s="17">
-        <f>L8</f>
-        <v>7.15</v>
-      </c>
-      <c r="M14" s="17" t="str">
-        <f>M8</f>
-        <v>7月</v>
-      </c>
-      <c r="N14" s="17">
-        <f>N8</f>
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="20">
-        <v>20</v>
-      </c>
-      <c r="C15" s="20">
-        <v>33</v>
-      </c>
-      <c r="D15" s="20">
-        <v>34</v>
-      </c>
-      <c r="E15" s="20">
-        <v>27</v>
-      </c>
-      <c r="F15" s="20">
-        <v>29</v>
-      </c>
-      <c r="G15" s="20">
-        <v>21</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="L15" s="20">
-        <v>20</v>
-      </c>
-      <c r="M15" s="20">
-        <v>23</v>
-      </c>
-      <c r="N15" s="16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="20">
-        <v>15</v>
-      </c>
-      <c r="C16" s="20">
-        <v>22</v>
-      </c>
-      <c r="D16" s="20">
-        <v>23</v>
-      </c>
-      <c r="E16" s="20">
-        <v>20</v>
-      </c>
-      <c r="F16" s="20">
-        <v>22</v>
-      </c>
-      <c r="G16" s="20">
-        <v>18</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="L16" s="20">
-        <v>15</v>
-      </c>
-      <c r="M16" s="20">
-        <v>20</v>
-      </c>
-      <c r="N16" s="16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="105">
-        <v>38</v>
-      </c>
-      <c r="C17" s="16">
-        <v>44</v>
-      </c>
-      <c r="D17" s="16">
-        <v>46</v>
-      </c>
-      <c r="E17" s="16">
-        <v>45</v>
-      </c>
-      <c r="F17" s="16">
-        <v>77</v>
-      </c>
-      <c r="G17" s="16">
-        <v>53</v>
-      </c>
-      <c r="L17" s="16">
-        <v>38</v>
-      </c>
-      <c r="M17" s="105">
-        <v>27</v>
-      </c>
-      <c r="N17" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="20">
-        <v>14</v>
-      </c>
-      <c r="C18" s="20">
-        <v>177</v>
-      </c>
-      <c r="D18" s="20">
-        <v>20</v>
-      </c>
-      <c r="E18" s="20">
-        <v>17</v>
-      </c>
-      <c r="F18" s="20">
-        <v>26</v>
-      </c>
-      <c r="G18" s="20">
-        <v>303</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="L18" s="20">
-        <v>14</v>
-      </c>
-      <c r="M18" s="20">
-        <v>21</v>
-      </c>
-      <c r="N18" s="16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="18">
-        <f>L14</f>
-        <v>7.15</v>
-      </c>
-      <c r="C20" s="18">
-        <v>8.1</v>
-      </c>
-      <c r="D20" s="18">
-        <v>8.15</v>
-      </c>
-      <c r="E20" s="18">
-        <v>9.1</v>
-      </c>
-      <c r="F20" s="18">
-        <v>9.15</v>
-      </c>
-      <c r="G20" s="18">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="C21" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="D21" s="20">
-        <v>7.9</v>
-      </c>
-      <c r="E21" s="20">
-        <v>8.1</v>
-      </c>
-      <c r="G21" s="219"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="20">
-        <v>7.6</v>
-      </c>
-      <c r="C22" s="20">
-        <v>7.6</v>
-      </c>
-      <c r="D22" s="20">
-        <v>8.1</v>
-      </c>
-      <c r="E22" s="20">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="C23" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="D23" s="20">
-        <v>7.8</v>
-      </c>
-      <c r="E23" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="C25" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="D25" s="20">
-        <v>4</v>
-      </c>
-      <c r="E25" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="19">
-        <v>7</v>
-      </c>
-      <c r="C27" s="19">
-        <v>7</v>
-      </c>
-      <c r="D27" s="19">
-        <v>8</v>
-      </c>
-      <c r="E27" s="19">
-        <v>13</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="26"/>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="221" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="221" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="221" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="221" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="221" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="221" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>